--- a/2023/BCA/Sem 3_result.xlsx
+++ b/2023/BCA/Sem 3_result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,8 +480,8 @@
     <col width="13" customWidth="1" min="22" max="22"/>
     <col width="11" customWidth="1" min="23" max="23"/>
     <col width="12" customWidth="1" min="24" max="24"/>
-    <col width="10" customWidth="1" min="25" max="25"/>
-    <col width="10" customWidth="1" min="26" max="26"/>
+    <col width="11" customWidth="1" min="25" max="25"/>
+    <col width="11" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -13449,8 +13449,16 @@
       <c r="X108" s="2" t="n">
         <v>67.75</v>
       </c>
-      <c r="Y108" s="2" t="inlineStr"/>
-      <c r="Z108" s="2" t="inlineStr"/>
+      <c r="Y108" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Z108" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="n">
@@ -13805,8 +13813,16 @@
       <c r="X111" s="3" t="n">
         <v>67.12</v>
       </c>
-      <c r="Y111" s="3" t="inlineStr"/>
-      <c r="Z111" s="3" t="inlineStr"/>
+      <c r="Y111" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Z111" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="2" t="n">
@@ -13921,8 +13937,16 @@
       <c r="X112" s="2" t="n">
         <v>67.12</v>
       </c>
-      <c r="Y112" s="2" t="inlineStr"/>
-      <c r="Z112" s="2" t="inlineStr"/>
+      <c r="Y112" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Z112" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="n">
@@ -14397,8 +14421,16 @@
       <c r="X116" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="Y116" s="2" t="inlineStr"/>
-      <c r="Z116" s="2" t="inlineStr"/>
+      <c r="Y116" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Z116" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="n">
@@ -15113,8 +15145,16 @@
       <c r="X122" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="Y122" s="2" t="inlineStr"/>
-      <c r="Z122" s="2" t="inlineStr"/>
+      <c r="Y122" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Z122" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="n">
@@ -15589,8 +15629,16 @@
       <c r="X126" s="2" t="n">
         <v>60.38</v>
       </c>
-      <c r="Y126" s="2" t="inlineStr"/>
-      <c r="Z126" s="2" t="inlineStr"/>
+      <c r="Y126" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Z126" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="3" t="n">
@@ -15705,8 +15753,16 @@
       <c r="X127" s="3" t="n">
         <v>59.13</v>
       </c>
-      <c r="Y127" s="3" t="inlineStr"/>
-      <c r="Z127" s="3" t="inlineStr"/>
+      <c r="Y127" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Z127" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="2" t="n">
@@ -15821,8 +15877,16 @@
       <c r="X128" s="2" t="n">
         <v>58.25</v>
       </c>
-      <c r="Y128" s="2" t="inlineStr"/>
-      <c r="Z128" s="2" t="inlineStr"/>
+      <c r="Y128" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Z128" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="129" ht="25" customHeight="1">
       <c r="A129" s="3" t="n">
@@ -15937,8 +16001,16 @@
       <c r="X129" s="3" t="n">
         <v>58.13</v>
       </c>
-      <c r="Y129" s="3" t="inlineStr"/>
-      <c r="Z129" s="3" t="inlineStr"/>
+      <c r="Y129" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Z129" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="130" ht="25" customHeight="1">
       <c r="A130" s="2" t="n">
@@ -16173,8 +16245,16 @@
       <c r="X131" s="3" t="n">
         <v>55.75</v>
       </c>
-      <c r="Y131" s="3" t="inlineStr"/>
-      <c r="Z131" s="3" t="inlineStr"/>
+      <c r="Y131" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Z131" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="2" t="n">
@@ -16289,8 +16369,16 @@
       <c r="X132" s="2" t="n">
         <v>53.25</v>
       </c>
-      <c r="Y132" s="2" t="inlineStr"/>
-      <c r="Z132" s="2" t="inlineStr"/>
+      <c r="Y132" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Z132" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="3" t="n">
@@ -16885,8 +16973,16 @@
       <c r="X137" s="3" t="n">
         <v>47.5</v>
       </c>
-      <c r="Y137" s="3" t="inlineStr"/>
-      <c r="Z137" s="3" t="inlineStr"/>
+      <c r="Y137" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Z137" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="138" ht="25" customHeight="1">
       <c r="A138" s="2" t="n">
@@ -17121,8 +17217,16 @@
       <c r="X139" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="Y139" s="3" t="inlineStr"/>
-      <c r="Z139" s="3" t="inlineStr"/>
+      <c r="Y139" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Z139" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
